--- a/trunk/parsetable.xlsx
+++ b/trunk/parsetable.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="510" windowWidth="10215" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Sheet2" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,7 +23,14 @@
   <commentList>
     <comment ref="AD2" authorId="0">
       <text>
-        <t xml:space="preserve">==</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>==</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -243,41 +253,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="17.0"/>
+      <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -287,9 +281,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -302,142 +294,428 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="2">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="3">
-      <alignment vertical="center" horizontal="general"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane topLeftCell="B2" ySplit="1.0" xSplit="1.0" activePane="bottomRight" state="frozen"/>
-      <selection sqref="B1" activeCell="B1" pane="topRight"/>
-      <selection sqref="A2" activeCell="A2" pane="bottomLeft"/>
-      <selection sqref="B2" activeCell="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.29" defaultRowHeight="21.75"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="4" width="11.43"/>
-    <col min="5" customWidth="1" max="5" width="13.29"/>
-    <col min="6" customWidth="1" max="18" width="11.43"/>
-    <col min="19" customWidth="1" max="19" width="14.0"/>
-    <col min="20" customWidth="1" max="20" width="16.43"/>
-    <col min="21" customWidth="1" max="31" width="11.43"/>
+    <col min="1" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="18" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="31" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="B1">
+    <row r="1" spans="1:31" ht="23.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="M1">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="N1">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="O1">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="P1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="Q1">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="R1">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="S1">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="T1">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="U1">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="V1">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="W1">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="1" r="X1">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="1" r="Y1">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="1" r="Z1">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="1" r="AA1">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="1" r="AB1">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="3" r="AC1">
+      <c r="AC1" s="3" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="1" r="AD1">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="1" r="AE1">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="21.0">
-      <c t="s" s="1" r="A2">
+    <row r="2" spans="1:31" ht="21" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2">
@@ -450,8 +728,8 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" r="3" ht="21.0">
-      <c t="s" s="1" r="A3">
+    <row r="3" spans="1:31" ht="21" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B3">
@@ -463,491 +741,494 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c s="2" r="AE3">
+      <c r="AE3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" r="4" ht="21.0">
-      <c t="s" s="1" r="A4">
+    <row r="4" spans="1:31" ht="21" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c s="2" r="B4">
+      <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c s="2" r="C4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c s="2" r="D4">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" r="5" ht="21.0">
-      <c t="s" s="1" r="A5">
+    <row r="5" spans="1:31" ht="21" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c s="2" r="B5"/>
-      <c s="2" r="C5"/>
-      <c s="2" r="D5"/>
-      <c s="2" r="F5">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c s="2" r="H5">
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c s="2" r="J5">
+      <c r="J5" s="2">
         <v>5</v>
       </c>
-      <c s="2" r="AE5"/>
-    </row>
-    <row customHeight="1" r="6" ht="21.0">
-      <c t="s" s="1" r="A6">
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" spans="1:31" ht="21" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c s="2" r="B6">
+      <c r="B6" s="2">
         <v>8</v>
       </c>
-      <c s="2" r="C6">
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c s="2" r="D6">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" r="7" ht="21.0">
-      <c t="s" s="1" r="A7">
+    <row r="7" spans="1:31" ht="21" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c s="2" r="F7">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c s="2" r="J7">
+      <c r="J7" s="2">
         <v>9</v>
       </c>
     </row>
-    <row customHeight="1" r="8" ht="21.0">
-      <c t="s" s="1" r="A8">
+    <row r="8" spans="1:31" ht="21" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c s="2" r="B8">
+      <c r="B8" s="2">
         <v>11</v>
       </c>
-      <c s="2" r="C8">
+      <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c s="2" r="D8">
+      <c r="D8" s="2">
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" r="9" ht="21.0">
-      <c t="s" s="1" r="A9">
+    <row r="9" spans="1:31" ht="21" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c s="2" r="B9">
+      <c r="B9" s="2">
         <v>14</v>
       </c>
-      <c s="2" r="C9">
+      <c r="C9" s="2">
         <v>16</v>
       </c>
-      <c s="2" r="D9">
+      <c r="D9" s="2">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" r="10" ht="21.0">
-      <c t="s" s="1" r="A10">
+    <row r="10" spans="1:31" ht="21" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="N10">
         <v>17</v>
       </c>
     </row>
-    <row customHeight="1" r="11" ht="21.0">
-      <c t="s" s="1" r="A11">
+    <row r="11" spans="1:31" ht="21" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c s="2" r="I11">
+      <c r="I11" s="2">
         <v>19</v>
       </c>
-      <c s="2" r="K11">
+      <c r="K11" s="2">
         <v>18</v>
       </c>
     </row>
-    <row customHeight="1" r="12" ht="21.0">
-      <c t="s" s="1" r="A12">
+    <row r="12" spans="1:31" ht="21" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
-      <c s="2" r="B12">
+      <c r="B12" s="2">
         <v>20</v>
       </c>
-      <c s="2" r="C12">
+      <c r="C12" s="2">
         <v>20</v>
       </c>
-      <c s="2" r="D12">
+      <c r="D12" s="2">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" r="13" ht="21.0">
-      <c t="s" s="1" r="A13">
+    <row r="13" spans="1:31" ht="21" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c s="2" r="F13">
+      <c r="F13" s="2">
         <v>21</v>
       </c>
-      <c s="2" r="I13">
+      <c r="I13" s="2">
         <v>22</v>
       </c>
-      <c s="2" r="K13">
+      <c r="K13" s="2">
         <v>22</v>
       </c>
     </row>
-    <row customHeight="1" r="14" ht="21.0">
-      <c t="s" s="1" r="A14">
+    <row r="14" spans="1:31" ht="21" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c s="2" r="L14">
+      <c r="L14" s="2">
         <v>23</v>
       </c>
     </row>
-    <row customHeight="1" r="15" ht="21.0">
-      <c t="s" s="1" r="A15">
+    <row r="15" spans="1:31" ht="21" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c s="2" r="B15">
+      <c r="B15" s="2">
         <v>24</v>
       </c>
-      <c s="2" r="C15">
+      <c r="C15" s="2">
         <v>24</v>
       </c>
-      <c s="2" r="D15">
+      <c r="D15" s="2">
         <v>24</v>
       </c>
-      <c s="2" r="E15">
+      <c r="E15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="H15">
+      <c r="H15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="J15"/>
-      <c s="2" r="L15">
+      <c r="J15" s="2"/>
+      <c r="L15" s="2">
         <v>25</v>
       </c>
       <c r="M15">
         <v>25</v>
       </c>
-      <c s="2" r="N15">
+      <c r="N15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="O15">
+      <c r="O15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="P15">
+      <c r="P15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="Q15">
+      <c r="Q15" s="2">
         <v>25</v>
       </c>
-      <c s="2" r="R15">
+      <c r="R15" s="2">
         <v>25</v>
       </c>
     </row>
-    <row customHeight="1" r="16" ht="21.0">
-      <c t="s" s="1" r="A16">
+    <row r="16" spans="1:31" ht="21" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c s="2" r="E16">
+      <c r="E16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="H16">
+      <c r="H16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="J16"/>
-      <c s="2" r="L16">
+      <c r="J16" s="2"/>
+      <c r="L16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="N16">
+      <c r="M16">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="O16">
+      <c r="O16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="P16">
+      <c r="P16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="Q16">
+      <c r="Q16" s="2">
         <v>26</v>
       </c>
-      <c s="2" r="R16">
+      <c r="R16" s="2">
         <v>26</v>
       </c>
     </row>
-    <row customHeight="1" r="17" ht="21.0">
-      <c t="s" s="1" r="A17">
+    <row r="17" spans="1:30" ht="21" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
-      <c s="2" r="E17">
+      <c r="E17" s="2">
         <v>28</v>
       </c>
-      <c s="2" r="H17">
+      <c r="H17" s="2">
         <v>28</v>
       </c>
-      <c s="2" r="J17"/>
-      <c s="2" r="L17">
+      <c r="J17" s="2"/>
+      <c r="L17" s="2">
         <v>29</v>
       </c>
-      <c s="2" r="N17">
+      <c r="N17" s="2">
         <v>28</v>
       </c>
-      <c s="2" r="O17">
+      <c r="O17" s="2">
         <v>28</v>
       </c>
-      <c s="2" r="P17">
+      <c r="P17" s="2">
         <v>30</v>
       </c>
-      <c s="2" r="Q17">
+      <c r="Q17" s="2">
         <v>31</v>
       </c>
-      <c s="2" r="R17">
+      <c r="R17" s="2">
         <v>32</v>
       </c>
     </row>
-    <row customHeight="1" r="18" ht="21.0">
-      <c t="s" s="1" r="A18">
+    <row r="18" spans="1:30" ht="21" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
-      <c s="2" r="E18">
+      <c r="E18" s="2">
         <v>33</v>
       </c>
-      <c s="2" r="H18">
+      <c r="H18" s="2">
         <v>33</v>
       </c>
-      <c s="2" r="J18">
+      <c r="J18" s="2">
         <v>34</v>
       </c>
-      <c s="2" r="N18">
+      <c r="N18" s="2">
         <v>33</v>
       </c>
-      <c s="2" r="O18">
+      <c r="O18" s="2">
         <v>33</v>
       </c>
     </row>
-    <row customHeight="1" r="19" ht="21.0">
-      <c t="s" s="1" r="A19">
+    <row r="19" spans="1:30" ht="21" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c s="2" r="P19">
+      <c r="P19" s="2">
         <v>35</v>
       </c>
     </row>
-    <row customHeight="1" r="20" ht="21.0">
-      <c t="s" s="1" r="A20">
+    <row r="20" spans="1:30" ht="21" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c s="2" r="E20">
+      <c r="E20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="H20">
+      <c r="H20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="J20"/>
-      <c s="2" r="L20">
+      <c r="J20" s="2"/>
+      <c r="L20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="N20">
+      <c r="N20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="O20">
+      <c r="O20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="P20">
+      <c r="P20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="Q20">
+      <c r="Q20" s="2">
         <v>37</v>
       </c>
-      <c s="2" r="R20">
+      <c r="R20" s="2">
         <v>37</v>
       </c>
-      <c t="s" s="2" r="S20">
+      <c r="S20" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" r="21" ht="21.0">
-      <c t="s" s="1" r="A21">
+    <row r="21" spans="1:30" ht="21" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c s="2" r="Q21">
+      <c r="Q21" s="2">
         <v>38</v>
       </c>
     </row>
-    <row customHeight="1" r="22" ht="21.0">
-      <c t="s" s="1" r="A22">
+    <row r="22" spans="1:30" ht="21" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c s="2" r="R22">
+      <c r="R22" s="2">
         <v>39</v>
       </c>
     </row>
-    <row customHeight="1" r="23" ht="21.0">
-      <c t="s" s="1" r="A23">
+    <row r="23" spans="1:30" ht="21" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c s="2" r="E23">
+      <c r="E23" s="2">
         <v>41</v>
       </c>
-      <c s="2" r="H23">
+      <c r="H23" s="2">
         <v>41</v>
       </c>
-      <c s="2" r="J23">
+      <c r="J23" s="2">
         <v>40</v>
       </c>
-      <c s="2" r="N23">
+      <c r="N23" s="2">
         <v>41</v>
       </c>
-      <c s="2" r="O23">
+      <c r="O23" s="2">
         <v>41</v>
       </c>
     </row>
-    <row customHeight="1" r="24" ht="21.0">
-      <c t="s" s="1" r="A24">
+    <row r="24" spans="1:30" ht="21" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c s="2" r="E24">
+      <c r="E24" s="2">
         <v>46</v>
       </c>
-      <c s="2" r="H24">
+      <c r="H24" s="2">
         <v>44</v>
       </c>
-      <c s="2" r="N24">
+      <c r="N24" s="2">
         <v>43</v>
       </c>
-      <c s="2" r="O24">
+      <c r="O24" s="2">
         <v>45</v>
       </c>
     </row>
-    <row customHeight="1" r="25" ht="21.0">
-      <c t="s" s="1" r="A25">
+    <row r="25" spans="1:30" ht="21" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c s="2" r="F25">
+      <c r="F25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="H25">
+      <c r="H25" s="2">
         <v>48</v>
       </c>
-      <c s="2" r="T25">
+      <c r="T25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="U25">
+      <c r="U25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="V25">
+      <c r="V25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="W25">
+      <c r="W25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="X25">
+      <c r="X25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="Y25">
+      <c r="Y25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="Z25">
+      <c r="Z25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="AA25">
+      <c r="AA25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="AB25">
+      <c r="AB25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="AC25">
+      <c r="AC25" s="2">
         <v>47</v>
       </c>
-      <c s="2" r="AD25">
+      <c r="AD25" s="2">
         <v>47</v>
       </c>
     </row>
-    <row customHeight="1" r="26" ht="21.0">
-      <c t="s" s="1" r="A26">
+    <row r="26" spans="1:30" ht="21" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c s="2" r="T26">
+      <c r="T26" s="2">
         <v>49</v>
       </c>
-      <c s="2" r="U26">
+      <c r="U26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="V26">
+      <c r="V26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="W26">
+      <c r="W26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="X26">
+      <c r="X26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="Y26">
+      <c r="Y26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="Z26">
+      <c r="Z26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="AA26">
+      <c r="AA26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="AB26">
+      <c r="AB26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="AC26">
+      <c r="AC26" s="2">
         <v>50</v>
       </c>
-      <c s="2" r="AD26">
+      <c r="AD26" s="2">
         <v>50</v>
       </c>
     </row>
-    <row customHeight="1" r="27" ht="21.0">
-      <c t="s" s="1" r="A27">
+    <row r="27" spans="1:30" ht="21" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c s="2" r="F27">
+      <c r="F27" s="2">
         <v>51</v>
       </c>
-      <c s="2" r="T27">
+      <c r="T27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="U27">
+      <c r="U27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="V27">
+      <c r="V27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="W27">
+      <c r="W27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="X27">
+      <c r="X27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="Y27">
+      <c r="Y27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="Z27">
+      <c r="Z27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="AA27">
+      <c r="AA27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="AB27">
+      <c r="AB27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="AC27">
+      <c r="AC27" s="2">
         <v>52</v>
       </c>
-      <c s="2" r="AD27">
+      <c r="AD27" s="2">
         <v>52</v>
       </c>
     </row>
-    <row customHeight="1" r="28" ht="21.0">
-      <c t="s" s="1" r="A28">
+    <row r="28" spans="1:30" ht="21" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G28">
@@ -962,193 +1243,193 @@
       <c r="K28">
         <v>54</v>
       </c>
-      <c s="2" r="Y28">
+      <c r="Y28" s="2">
         <v>53</v>
       </c>
-      <c s="2" r="Z28">
+      <c r="Z28" s="2">
         <v>53</v>
       </c>
-      <c s="2" r="AA28">
+      <c r="AA28" s="2">
         <v>53</v>
       </c>
-      <c s="2" r="AB28">
+      <c r="AB28" s="2">
         <v>53</v>
       </c>
-      <c s="2" r="AC28">
+      <c r="AC28" s="2">
         <v>53</v>
       </c>
-      <c s="2" r="AD28">
+      <c r="AD28" s="2">
         <v>53</v>
       </c>
     </row>
-    <row customHeight="1" r="29" ht="21.0">
-      <c t="s" s="1" r="A29">
+    <row r="29" spans="1:30" ht="21" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c s="2" r="Y29">
+      <c r="Y29" s="2">
         <v>55</v>
       </c>
-      <c s="2" r="Z29">
+      <c r="Z29" s="2">
         <v>56</v>
       </c>
-      <c s="2" r="AA29">
+      <c r="AA29" s="2">
         <v>57</v>
       </c>
-      <c s="2" r="AB29">
+      <c r="AB29" s="2">
         <v>58</v>
       </c>
-      <c s="2" r="AC29">
+      <c r="AC29" s="2">
         <v>59</v>
       </c>
-      <c s="2" r="AD29">
+      <c r="AD29" s="2">
         <v>60</v>
       </c>
     </row>
-    <row customHeight="1" r="30" ht="21.0">
-      <c t="s" s="1" r="A30">
+    <row r="30" spans="1:30" ht="21" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c s="2" r="E30">
+      <c r="E30" s="2">
         <v>61</v>
       </c>
-      <c s="2" r="H30">
+      <c r="H30" s="2">
         <v>61</v>
       </c>
-      <c s="2" r="N30">
+      <c r="N30" s="2">
         <v>61</v>
       </c>
-      <c s="2" r="O30">
+      <c r="O30" s="2">
         <v>61</v>
       </c>
     </row>
-    <row customHeight="1" r="31" ht="21.0">
-      <c t="s" s="1" r="A31">
+    <row r="31" spans="1:30" ht="21" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c s="2" r="W31">
+      <c r="W31" s="2">
         <v>62</v>
       </c>
-      <c s="2" r="X31">
+      <c r="X31" s="2">
         <v>62</v>
       </c>
-      <c s="2" r="Y31">
+      <c r="Y31" s="2">
         <v>63</v>
       </c>
-      <c s="2" r="Z31">
+      <c r="Z31" s="2">
         <v>63</v>
       </c>
-      <c s="2" r="AA31">
+      <c r="AA31" s="2">
         <v>63</v>
       </c>
-      <c s="2" r="AB31">
+      <c r="AB31" s="2">
         <v>63</v>
       </c>
-      <c s="2" r="AC31">
+      <c r="AC31" s="2">
         <v>63</v>
       </c>
-      <c s="2" r="AD31">
+      <c r="AD31" s="2">
         <v>63</v>
       </c>
     </row>
-    <row customHeight="1" r="32" ht="21.0">
-      <c t="s" s="1" r="A32">
+    <row r="32" spans="1:30" ht="21" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c s="2" r="W32">
+      <c r="W32" s="2">
         <v>64</v>
       </c>
-      <c s="2" r="X32">
+      <c r="X32" s="2">
         <v>64</v>
       </c>
     </row>
-    <row customHeight="1" r="33" ht="21.0">
-      <c t="s" s="1" r="A33">
+    <row r="33" spans="1:30" ht="21" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c s="2" r="E33">
+      <c r="E33" s="2">
         <v>66</v>
       </c>
-      <c s="2" r="H33">
+      <c r="H33" s="2">
         <v>66</v>
       </c>
-      <c s="2" r="N33">
+      <c r="N33" s="2">
         <v>66</v>
       </c>
-      <c s="2" r="O33">
+      <c r="O33" s="2">
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" r="34" ht="21.0">
-      <c t="s" s="1" r="A34">
+    <row r="34" spans="1:30" ht="21" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c s="2" r="U34">
+      <c r="U34" s="2">
         <v>67</v>
       </c>
-      <c s="2" r="V34">
+      <c r="V34" s="2">
         <v>67</v>
       </c>
-      <c s="2" r="W34">
+      <c r="W34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="X34">
+      <c r="X34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="Y34">
+      <c r="Y34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="Z34">
+      <c r="Z34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="AA34">
+      <c r="AA34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="AB34">
+      <c r="AB34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="AC34">
+      <c r="AC34" s="2">
         <v>68</v>
       </c>
-      <c s="2" r="AD34">
+      <c r="AD34" s="2">
         <v>68</v>
       </c>
     </row>
-    <row customHeight="1" r="35" ht="21.0">
-      <c t="s" s="1" r="A35">
+    <row r="35" spans="1:30" ht="21" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c s="2" r="U35">
+      <c r="U35" s="2">
         <v>69</v>
       </c>
-      <c s="2" r="V35">
+      <c r="V35" s="2">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" r="36" ht="21.0">
-      <c t="s" s="1" r="A36">
+    <row r="36" spans="1:30" ht="21" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c s="2" r="E36">
+      <c r="E36" s="2">
         <v>74</v>
       </c>
-      <c s="2" r="H36">
+      <c r="H36" s="2">
         <v>76</v>
       </c>
-      <c s="2" r="N36">
+      <c r="N36" s="2">
         <v>72</v>
       </c>
-      <c s="2" r="O36">
+      <c r="O36" s="2">
         <v>73</v>
       </c>
     </row>
-    <row customHeight="1" r="37" ht="21.0">
-      <c t="s" s="1" r="A37">
+    <row r="37" spans="1:30" ht="21" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c s="2" r="F37">
+      <c r="F37" s="2">
         <v>75</v>
       </c>
-      <c s="2" r="H37">
+      <c r="H37" s="2">
         <v>76</v>
       </c>
       <c r="U37">
@@ -1181,54 +1462,54 @@
       <c r="AD37">
         <v>75</v>
       </c>
-      <c r="AE37">
-        <v>75</v>
-      </c>
-    </row>
-    <row customHeight="1" r="38" ht="21.0">
-      <c t="s" s="1" r="A38">
+    </row>
+    <row r="38" spans="1:30" ht="21" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c s="2" r="E38">
+      <c r="E38" s="2">
         <v>77</v>
       </c>
-      <c s="2" r="H38">
+      <c r="H38" s="2">
         <v>77</v>
       </c>
-      <c s="2" r="I38">
+      <c r="I38" s="2">
         <v>78</v>
       </c>
-      <c s="2" r="N38">
+      <c r="N38" s="2">
         <v>77</v>
       </c>
-      <c s="2" r="O38">
+      <c r="O38" s="2">
         <v>77</v>
       </c>
     </row>
-    <row customHeight="1" r="39" ht="21.0">
-      <c t="s" s="1" r="A39">
+    <row r="39" spans="1:30" ht="21" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c s="2" r="E39">
+      <c r="E39" s="2">
         <v>79</v>
       </c>
-      <c s="2" r="H39">
+      <c r="H39" s="2">
         <v>79</v>
       </c>
-      <c s="2" r="N39">
+      <c r="N39" s="2">
         <v>79</v>
       </c>
-      <c s="2" r="O39">
+      <c r="O39" s="2">
         <v>79</v>
       </c>
     </row>
-    <row customHeight="1" r="40" ht="21.0">
-      <c t="s" s="1" r="A40">
+    <row r="40" spans="1:30" ht="21" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c s="2" r="B40"/>
-      <c s="2" r="C40"/>
-      <c s="2" r="D40"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="I40">
+        <v>81</v>
+      </c>
       <c r="K40">
         <v>80</v>
       </c>
@@ -1237,32 +1518,37 @@
       </c>
     </row>
   </sheetData>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.29" defaultRowHeight="12.0"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="11.43"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.29" defaultRowHeight="12.0"/>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="11.43"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>